--- a/Format/Classific/Open Clusters/Bi, Biur/Biurakan.xlsx
+++ b/Format/Classific/Open Clusters/Bi, Biur/Biurakan.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,5 +837,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>